--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H2">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I2">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J2">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.19535066666666</v>
+        <v>52.63198466666667</v>
       </c>
       <c r="N2">
-        <v>186.586052</v>
+        <v>157.895954</v>
       </c>
       <c r="O2">
-        <v>0.1128126361009955</v>
+        <v>0.1037886003335349</v>
       </c>
       <c r="P2">
-        <v>0.1128126361009956</v>
+        <v>0.1037886003335349</v>
       </c>
       <c r="Q2">
-        <v>9.595001138048</v>
+        <v>56.3047673646709</v>
       </c>
       <c r="R2">
-        <v>86.355010242432</v>
+        <v>506.7429062820381</v>
       </c>
       <c r="S2">
-        <v>0.008648955063447879</v>
+        <v>0.0560774926492011</v>
       </c>
       <c r="T2">
-        <v>0.00864895506344788</v>
+        <v>0.0560774926492011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H3">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I3">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J3">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>413.929229</v>
       </c>
       <c r="O3">
-        <v>0.2502676217338188</v>
+        <v>0.2720850929153589</v>
       </c>
       <c r="P3">
-        <v>0.2502676217338188</v>
+        <v>0.2720850929153589</v>
       </c>
       <c r="Q3">
-        <v>21.285896672096</v>
+        <v>147.6047254781625</v>
       </c>
       <c r="R3">
-        <v>191.573070048864</v>
+        <v>1328.442529303463</v>
       </c>
       <c r="S3">
-        <v>0.01918715393082344</v>
+        <v>0.1470089176353244</v>
       </c>
       <c r="T3">
-        <v>0.01918715393082344</v>
+        <v>0.1470089176353244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H4">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I4">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J4">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.63811233333333</v>
+        <v>45.81758366666667</v>
       </c>
       <c r="N4">
-        <v>127.914337</v>
+        <v>137.452751</v>
       </c>
       <c r="O4">
-        <v>0.07733886535142032</v>
+        <v>0.09035081822479055</v>
       </c>
       <c r="P4">
-        <v>0.07733886535142033</v>
+        <v>0.09035081822479055</v>
       </c>
       <c r="Q4">
-        <v>6.577866865888</v>
+        <v>49.0148415626219</v>
       </c>
       <c r="R4">
-        <v>59.200801792992</v>
+        <v>441.1335740635971</v>
       </c>
       <c r="S4">
-        <v>0.005929303615276283</v>
+        <v>0.04881699270023707</v>
       </c>
       <c r="T4">
-        <v>0.005929303615276283</v>
+        <v>0.04881699270023707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H5">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I5">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J5">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>308.50559</v>
+        <v>270.6815896666666</v>
       </c>
       <c r="N5">
-        <v>925.51677</v>
+        <v>812.044769</v>
       </c>
       <c r="O5">
-        <v>0.5595808768137652</v>
+        <v>0.5337754885263156</v>
       </c>
       <c r="P5">
-        <v>0.5595808768137653</v>
+        <v>0.5337754885263157</v>
       </c>
       <c r="Q5">
-        <v>47.59377438047999</v>
+        <v>289.5703825839826</v>
       </c>
       <c r="R5">
-        <v>428.34396942432</v>
+        <v>2606.133443255843</v>
       </c>
       <c r="S5">
-        <v>0.04290113257874938</v>
+        <v>0.2884015290500712</v>
       </c>
       <c r="T5">
-        <v>0.04290113257874939</v>
+        <v>0.2884015290500712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H6">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I6">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J6">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.19535066666666</v>
+        <v>52.63198466666667</v>
       </c>
       <c r="N6">
-        <v>186.586052</v>
+        <v>157.895954</v>
       </c>
       <c r="O6">
-        <v>0.1128126361009955</v>
+        <v>0.1037886003335349</v>
       </c>
       <c r="P6">
-        <v>0.1128126361009956</v>
+        <v>0.1037886003335349</v>
       </c>
       <c r="Q6">
-        <v>66.53548735867155</v>
+        <v>34.93126927143534</v>
       </c>
       <c r="R6">
-        <v>598.819386228044</v>
+        <v>314.381423442918</v>
       </c>
       <c r="S6">
-        <v>0.059975234188125</v>
+        <v>0.03479026887917289</v>
       </c>
       <c r="T6">
-        <v>0.05997523418812501</v>
+        <v>0.03479026887917289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H7">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I7">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J7">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>413.929229</v>
       </c>
       <c r="O7">
-        <v>0.2502676217338188</v>
+        <v>0.2720850929153589</v>
       </c>
       <c r="P7">
-        <v>0.2502676217338188</v>
+        <v>0.2720850929153589</v>
       </c>
       <c r="Q7">
-        <v>147.6047254781625</v>
+        <v>91.57342535526033</v>
       </c>
       <c r="R7">
-        <v>1328.442529303463</v>
+        <v>824.1608281973429</v>
       </c>
       <c r="S7">
-        <v>0.1330512231781667</v>
+        <v>0.09120378837483525</v>
       </c>
       <c r="T7">
-        <v>0.1330512231781667</v>
+        <v>0.09120378837483527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H8">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I8">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J8">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.63811233333333</v>
+        <v>45.81758366666667</v>
       </c>
       <c r="N8">
-        <v>127.914337</v>
+        <v>137.452751</v>
       </c>
       <c r="O8">
-        <v>0.07733886535142032</v>
+        <v>0.09035081822479055</v>
       </c>
       <c r="P8">
-        <v>0.07733886535142033</v>
+        <v>0.09035081822479055</v>
       </c>
       <c r="Q8">
-        <v>45.6134993008821</v>
+        <v>30.40862628614634</v>
       </c>
       <c r="R8">
-        <v>410.521493707939</v>
+        <v>273.677636575317</v>
       </c>
       <c r="S8">
-        <v>0.04111610828012879</v>
+        <v>0.03028588158422349</v>
       </c>
       <c r="T8">
-        <v>0.0411161082801288</v>
+        <v>0.03028588158422349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H9">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I9">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J9">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>308.50559</v>
+        <v>270.6815896666666</v>
       </c>
       <c r="N9">
-        <v>925.51677</v>
+        <v>812.044769</v>
       </c>
       <c r="O9">
-        <v>0.5595808768137652</v>
+        <v>0.5337754885263156</v>
       </c>
       <c r="P9">
-        <v>0.5595808768137653</v>
+        <v>0.5337754885263157</v>
       </c>
       <c r="Q9">
-        <v>330.0338299165766</v>
+        <v>179.6483935642803</v>
       </c>
       <c r="R9">
-        <v>2970.304469249189</v>
+        <v>1616.835542078523</v>
       </c>
       <c r="S9">
-        <v>0.297493217905629</v>
+        <v>0.1789232411581352</v>
       </c>
       <c r="T9">
-        <v>0.297493217905629</v>
+        <v>0.1789232411581353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H10">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I10">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J10">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.19535066666666</v>
+        <v>52.63198466666667</v>
       </c>
       <c r="N10">
-        <v>186.586052</v>
+        <v>157.895954</v>
       </c>
       <c r="O10">
-        <v>0.1128126361009955</v>
+        <v>0.1037886003335349</v>
       </c>
       <c r="P10">
-        <v>0.1128126361009956</v>
+        <v>0.1037886003335349</v>
       </c>
       <c r="Q10">
-        <v>49.02189856444489</v>
+        <v>12.973205268502</v>
       </c>
       <c r="R10">
-        <v>441.197087080004</v>
+        <v>116.758847416518</v>
       </c>
       <c r="S10">
-        <v>0.04418844684942266</v>
+        <v>0.01292083880516092</v>
       </c>
       <c r="T10">
-        <v>0.04418844684942267</v>
+        <v>0.01292083880516092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H11">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I11">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J11">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>413.929229</v>
       </c>
       <c r="O11">
-        <v>0.2502676217338188</v>
+        <v>0.2720850929153589</v>
       </c>
       <c r="P11">
-        <v>0.2502676217338188</v>
+        <v>0.2720850929153589</v>
       </c>
       <c r="Q11">
-        <v>108.7519482801259</v>
+        <v>34.009667242327</v>
       </c>
       <c r="R11">
-        <v>978.767534521133</v>
+        <v>306.087005180943</v>
       </c>
       <c r="S11">
-        <v>0.09802924462482866</v>
+        <v>0.03387238690519923</v>
       </c>
       <c r="T11">
-        <v>0.09802924462482866</v>
+        <v>0.03387238690519923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H12">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I12">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J12">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.63811233333333</v>
+        <v>45.81758366666667</v>
       </c>
       <c r="N12">
-        <v>127.914337</v>
+        <v>137.452751</v>
       </c>
       <c r="O12">
-        <v>0.07733886535142032</v>
+        <v>0.09035081822479055</v>
       </c>
       <c r="P12">
-        <v>0.07733886535142033</v>
+        <v>0.09035081822479055</v>
       </c>
       <c r="Q12">
-        <v>33.60703324893878</v>
+        <v>11.293530380413</v>
       </c>
       <c r="R12">
-        <v>302.463299240449</v>
+        <v>101.641773423717</v>
       </c>
       <c r="S12">
-        <v>0.03029345345601524</v>
+        <v>0.01124794394032998</v>
       </c>
       <c r="T12">
-        <v>0.03029345345601524</v>
+        <v>0.01124794394032998</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H13">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I13">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J13">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>308.50559</v>
+        <v>270.6815896666666</v>
       </c>
       <c r="N13">
-        <v>925.51677</v>
+        <v>812.044769</v>
       </c>
       <c r="O13">
-        <v>0.5595808768137652</v>
+        <v>0.5337754885263156</v>
       </c>
       <c r="P13">
-        <v>0.5595808768137653</v>
+        <v>0.5337754885263157</v>
       </c>
       <c r="Q13">
-        <v>243.1617408284767</v>
+        <v>66.72003435534701</v>
       </c>
       <c r="R13">
-        <v>2188.45566745629</v>
+        <v>600.4803091981231</v>
       </c>
       <c r="S13">
-        <v>0.2191865263293868</v>
+        <v>0.06645071831810925</v>
       </c>
       <c r="T13">
-        <v>0.2191865263293869</v>
+        <v>0.06645071831810925</v>
       </c>
     </row>
   </sheetData>
